--- a/model/Outputs/8. Fixed RE/No PV/Output Files/20/Output_16_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV/Output Files/20/Output_16_39.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Household Surplus" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -42,7 +41,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,10 +64,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -78,7 +89,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -443,11 +454,14 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="27.6328125" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -561,7 +575,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>382833.1637613869</v>
+        <v>1160527903.896197</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +595,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -4229,7 +4243,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -7877,7 +7891,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -11525,7 +11539,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -15173,7 +15187,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -18821,7 +18835,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -22469,7 +22483,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -26117,7 +26131,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -26263,7 +26277,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -26589,7 +26603,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -26759,7 +26773,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -26981,7 +26995,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -27089,49 +27103,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27203,7 +27217,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -27425,7 +27439,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -31073,7 +31087,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -34721,7 +34735,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
